--- a/biology/Microbiologie/Abditibacteriia/Abditibacteriia.xlsx
+++ b/biology/Microbiologie/Abditibacteriia/Abditibacteriia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Abditibacteriia sont la classe type du phylum "Abditibacteriota" du règne des Bacteria. Son nom provient de Abditibacteriales qui est son ordre type.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe Abditibacteriia est proposée en 2018 pour contenir la bactérie Abditibacterium utsteinense laquelle se trouve être la première espèce bactérienne cultivée du phylum candidat FBP[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe Abditibacteriia est proposée en 2018 pour contenir la bactérie Abditibacterium utsteinense laquelle se trouve être la première espèce bactérienne cultivée du phylum candidat FBP.
 </t>
         </is>
       </c>
@@ -542,13 +556,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Proposée en 2018 sous la graphie erronée Abditibacteria[1], le nom de cette classe est corrigé en Abditibacteriia en 2022 et depuis, considérée comme publié de manière valide[2].
-Étymologie
-L'étymologie du nom actuel de cette classe est la suivante : Ab.di.ti.bac.te.ri.i.a. N.L. neut. pl. n. Abditibacteriia, la classe des Abditibacteriales[3]. Selon la publication originale, l'étymologie provient du nom de son ordre type Abditibacteriales : Ab.di.ti.bac.te.ri’a. N. L. fem. pl. n. Abditibacterium, genre type de l'ordre type de cette classe; -a, suffixe pour définir une classe; N. L. neut. pl. n. Abditibacteria, la classe de l'ordre Abditibacteriales[4].
-Liste des classes
-Selon la base de nomenclature LPSN  (01/08/2023)[5], cette classe ne contient qu'un seul ordre, publié de manière valide:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proposée en 2018 sous la graphie erronée Abditibacteria, le nom de cette classe est corrigé en Abditibacteriia en 2022 et depuis, considérée comme publié de manière valide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abditibacteriia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abditibacteriia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom actuel de cette classe est la suivante : Ab.di.ti.bac.te.ri.i.a. N.L. neut. pl. n. Abditibacteriia, la classe des Abditibacteriales. Selon la publication originale, l'étymologie provient du nom de son ordre type Abditibacteriales : Ab.di.ti.bac.te.ri’a. N. L. fem. pl. n. Abditibacterium, genre type de l'ordre type de cette classe; -a, suffixe pour définir une classe; N. L. neut. pl. n. Abditibacteria, la classe de l'ordre Abditibacteriales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abditibacteriia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abditibacteriia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base de nomenclature LPSN  (01/08/2023), cette classe ne contient qu'un seul ordre, publié de manière valide:
 Abditibacteriales Tahon et al. 2018</t>
         </is>
       </c>
